--- a/examples/sources/data/unsolved/to_schedule/2019-04-30.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-30.xlsx
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N139">
         <v>1</v>
